--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43599,6 +43599,41 @@
         <v>24600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43634,6 +43634,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43669,6 +43669,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>19100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43704,6 +43704,41 @@
         <v>19100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>16400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43739,6 +43739,41 @@
         <v>16400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43774,6 +43774,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>13300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43809,6 +43809,41 @@
         <v>13300</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>96200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43844,6 +43844,41 @@
         <v>96200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>82400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43879,6 +43879,41 @@
         <v>82400</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>62000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43914,6 +43914,41 @@
         <v>62000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>64000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43949,6 +43949,41 @@
         <v>64000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>33000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43984,6 +43984,41 @@
         <v>33000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>13800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44019,6 +44019,76 @@
         <v>13800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>28800</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>99000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44089,6 +44089,76 @@
         <v>99000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>63900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44159,6 +44159,41 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>14000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44194,6 +44194,41 @@
         <v>14000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44229,6 +44229,41 @@
         <v>21000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>34400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44264,6 +44264,41 @@
         <v>34400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>124100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44299,6 +44299,76 @@
         <v>124100</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>92300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>7500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44369,6 +44369,41 @@
         <v>7500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>65300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44404,6 +44404,41 @@
         <v>65300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>35200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2500"/>
+  <dimension ref="A1:I2501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88504,6 +88504,41 @@
         <v>35200</v>
       </c>
     </row>
+    <row r="2501">
+      <c r="A2501" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2501" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2501" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2501" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F2501" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G2501" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2501" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I2501" t="n">
+        <v>77300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2501"/>
+  <dimension ref="A1:I2502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88539,6 +88539,41 @@
         <v>77300</v>
       </c>
     </row>
+    <row r="2502">
+      <c r="A2502" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2502" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2502" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F2502" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G2502" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H2502" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I2502" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2502"/>
+  <dimension ref="A1:I2503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88574,6 +88574,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2503">
+      <c r="A2503" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2503" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F2503" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G2503" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H2503" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I2503" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2503"/>
+  <dimension ref="A1:I2504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88609,6 +88609,43 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="2504">
+      <c r="A2504" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2504" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F2504" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G2504" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H2504" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I2504" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2504"/>
+  <dimension ref="A1:I2505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88646,6 +88646,41 @@
         </is>
       </c>
     </row>
+    <row r="2505">
+      <c r="A2505" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2505" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2505" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G2505" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H2505" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2505" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2505"/>
+  <dimension ref="A1:I2506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88681,6 +88681,43 @@
         <v>200</v>
       </c>
     </row>
+    <row r="2506">
+      <c r="A2506" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2506" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2506" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G2506" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H2506" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2506" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2506"/>
+  <dimension ref="A1:I2507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88718,6 +88718,41 @@
         </is>
       </c>
     </row>
+    <row r="2507">
+      <c r="A2507" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2507" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2507" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G2507" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H2507" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I2507" t="n">
+        <v>15100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2507"/>
+  <dimension ref="A1:I2508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88753,6 +88753,41 @@
         <v>15100</v>
       </c>
     </row>
+    <row r="2508">
+      <c r="A2508" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2508" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2508" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2508" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G2508" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H2508" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2508" t="n">
+        <v>134600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2508"/>
+  <dimension ref="A1:I2509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88788,6 +88788,41 @@
         <v>134600</v>
       </c>
     </row>
+    <row r="2509">
+      <c r="A2509" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2509" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2509" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2509" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F2509" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G2509" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H2509" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2509" t="n">
+        <v>85500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2509"/>
+  <dimension ref="A1:I2510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88823,6 +88823,41 @@
         <v>85500</v>
       </c>
     </row>
+    <row r="2510">
+      <c r="A2510" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2510" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2510" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2510" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2510" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G2510" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H2510" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="I2510" t="n">
+        <v>115600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2510"/>
+  <dimension ref="A1:I2511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88858,6 +88858,41 @@
         <v>115600</v>
       </c>
     </row>
+    <row r="2511">
+      <c r="A2511" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2511" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2511" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2511" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F2511" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G2511" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H2511" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I2511" t="n">
+        <v>62900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2511"/>
+  <dimension ref="A1:I2512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88893,6 +88893,41 @@
         <v>62900</v>
       </c>
     </row>
+    <row r="2512">
+      <c r="A2512" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2512" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2512" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2512" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F2512" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G2512" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H2512" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I2512" t="n">
+        <v>59500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2512"/>
+  <dimension ref="A1:I2513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88928,6 +88928,41 @@
         <v>59500</v>
       </c>
     </row>
+    <row r="2513">
+      <c r="A2513" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2513" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2513" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2513" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F2513" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G2513" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H2513" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2513" t="n">
+        <v>220000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2513"/>
+  <dimension ref="A1:I2514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88963,6 +88963,41 @@
         <v>220000</v>
       </c>
     </row>
+    <row r="2514">
+      <c r="A2514" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2514" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2514" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2514" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F2514" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G2514" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H2514" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2514" t="n">
+        <v>52900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2514"/>
+  <dimension ref="A1:I2515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88998,6 +88998,41 @@
         <v>52900</v>
       </c>
     </row>
+    <row r="2515">
+      <c r="A2515" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2515" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2515" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2515" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2515" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G2515" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H2515" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I2515" t="n">
+        <v>10300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2864"/>
+  <dimension ref="A1:I2865"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101248,6 +101248,41 @@
         <v>10300</v>
       </c>
     </row>
+    <row r="2865">
+      <c r="A2865" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2865" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2865" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2865" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2865" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F2865" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G2865" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H2865" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="I2865" t="n">
+        <v>39700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2865"/>
+  <dimension ref="A1:I2866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101283,6 +101283,41 @@
         <v>39700</v>
       </c>
     </row>
+    <row r="2866">
+      <c r="A2866" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2866" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2866" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2866" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2866" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F2866" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G2866" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H2866" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I2866" t="n">
+        <v>27500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2866"/>
+  <dimension ref="A1:I2867"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101318,6 +101318,41 @@
         <v>27500</v>
       </c>
     </row>
+    <row r="2867">
+      <c r="A2867" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2867" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2867" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2867" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2867" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F2867" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G2867" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H2867" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I2867" t="n">
+        <v>60100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2867"/>
+  <dimension ref="A1:I2868"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101353,6 +101353,43 @@
         <v>60100</v>
       </c>
     </row>
+    <row r="2868">
+      <c r="A2868" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2868" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2868" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2868" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2868" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F2868" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G2868" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H2868" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I2868" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2868"/>
+  <dimension ref="A1:I2869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101390,6 +101390,41 @@
         </is>
       </c>
     </row>
+    <row r="2869">
+      <c r="A2869" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2869" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2869" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2869" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2869" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F2869" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G2869" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H2869" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I2869" t="n">
+        <v>8100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2869"/>
+  <dimension ref="A1:I2870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101425,6 +101425,41 @@
         <v>8100</v>
       </c>
     </row>
+    <row r="2870">
+      <c r="A2870" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2870" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2870" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2870" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2870" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F2870" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G2870" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H2870" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I2870" t="n">
+        <v>20900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2870"/>
+  <dimension ref="A1:I2871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101460,6 +101460,41 @@
         <v>20900</v>
       </c>
     </row>
+    <row r="2871">
+      <c r="A2871" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2871" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2871" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2871" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2871" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F2871" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G2871" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H2871" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I2871" t="n">
+        <v>18300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2871"/>
+  <dimension ref="A1:I2872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101495,6 +101495,41 @@
         <v>18300</v>
       </c>
     </row>
+    <row r="2872">
+      <c r="A2872" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2872" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2872" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2872" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2872" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F2872" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G2872" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H2872" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I2872" t="n">
+        <v>64700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2872"/>
+  <dimension ref="A1:I2873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101530,6 +101530,41 @@
         <v>64700</v>
       </c>
     </row>
+    <row r="2873">
+      <c r="A2873" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2873" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2873" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2873" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2873" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2873" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G2873" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H2873" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I2873" t="n">
+        <v>35300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2873"/>
+  <dimension ref="A1:I2874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101565,6 +101565,41 @@
         <v>35300</v>
       </c>
     </row>
+    <row r="2874">
+      <c r="A2874" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2874" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2874" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2874" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2874" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2874" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G2874" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H2874" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I2874" t="n">
+        <v>43700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2874"/>
+  <dimension ref="A1:I2876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101600,6 +101600,76 @@
         <v>43700</v>
       </c>
     </row>
+    <row r="2875">
+      <c r="A2875" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2875" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2875" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2875" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2875" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F2875" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G2875" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H2875" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I2875" t="n">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="2876">
+      <c r="A2876" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2876" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2876" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2876" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2876" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2876" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G2876" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H2876" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I2876" t="n">
+        <v>90900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2876"/>
+  <dimension ref="A1:I2877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101670,6 +101670,41 @@
         <v>90900</v>
       </c>
     </row>
+    <row r="2877">
+      <c r="A2877" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2877" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2877" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2877" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2877" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F2877" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G2877" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H2877" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2877" t="n">
+        <v>4100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2877"/>
+  <dimension ref="A1:I2880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101705,6 +101705,115 @@
         <v>4100</v>
       </c>
     </row>
+    <row r="2878">
+      <c r="A2878" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2878" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2878" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2878" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2878" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2878" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G2878" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H2878" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I2878" t="n">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="2879">
+      <c r="A2879" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2879" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2879" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2879" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2879" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F2879" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G2879" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H2879" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I2879" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2880">
+      <c r="A2880" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2880" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2880" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2880" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2880" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F2880" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G2880" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H2880" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I2880" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2880"/>
+  <dimension ref="A1:I2881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101814,6 +101814,41 @@
         </is>
       </c>
     </row>
+    <row r="2881">
+      <c r="A2881" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2881" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2881" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2881" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2881" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F2881" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G2881" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H2881" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I2881" t="n">
+        <v>17600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2881"/>
+  <dimension ref="A1:I2882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101849,6 +101849,41 @@
         <v>17600</v>
       </c>
     </row>
+    <row r="2882">
+      <c r="A2882" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2882" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2882" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2882" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2882" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F2882" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G2882" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H2882" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I2882" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5135.xlsx
+++ b/data/5135.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2882"/>
+  <dimension ref="A1:I2885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101884,6 +101884,111 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="2883">
+      <c r="A2883" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2883" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2883" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2883" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2883" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F2883" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G2883" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H2883" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I2883" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="2884">
+      <c r="A2884" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2884" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2884" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2884" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2884" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F2884" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G2884" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H2884" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="I2884" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="2885">
+      <c r="A2885" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2885" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2885" t="inlineStr">
+        <is>
+          <t>5135</t>
+        </is>
+      </c>
+      <c r="D2885" t="inlineStr">
+        <is>
+          <t>SWKPLNT</t>
+        </is>
+      </c>
+      <c r="E2885" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F2885" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G2885" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H2885" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2885" t="n">
+        <v>1100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
